--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H2">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N2">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O2">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P2">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q2">
-        <v>69.17548131749412</v>
+        <v>53.322498452452</v>
       </c>
       <c r="R2">
-        <v>622.5793318574471</v>
+        <v>479.9024860720681</v>
       </c>
       <c r="S2">
-        <v>0.2759041631761376</v>
+        <v>0.2158605496302139</v>
       </c>
       <c r="T2">
-        <v>0.2759041631761375</v>
+        <v>0.2158605496302139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H3">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.369632</v>
       </c>
       <c r="O3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q3">
-        <v>70.01799137064178</v>
+        <v>60.03247637671466</v>
       </c>
       <c r="R3">
-        <v>630.161922335776</v>
+        <v>540.292287390432</v>
       </c>
       <c r="S3">
-        <v>0.279264487192017</v>
+        <v>0.243023934032194</v>
       </c>
       <c r="T3">
-        <v>0.2792644871920169</v>
+        <v>0.2430239340321939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H4">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I4">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J4">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N4">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q4">
-        <v>19.59957917542078</v>
+        <v>32.80850314180666</v>
       </c>
       <c r="R4">
-        <v>176.396212578787</v>
+        <v>295.27652827626</v>
       </c>
       <c r="S4">
-        <v>0.07817228572909644</v>
+        <v>0.132815635543599</v>
       </c>
       <c r="T4">
-        <v>0.07817228572909643</v>
+        <v>0.1328156355435989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N5">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O5">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P5">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q5">
-        <v>27.52658567690067</v>
+        <v>24.747654026728</v>
       </c>
       <c r="R5">
-        <v>247.739271092106</v>
+        <v>222.728886240552</v>
       </c>
       <c r="S5">
-        <v>0.1097888940074621</v>
+        <v>0.1001836439646843</v>
       </c>
       <c r="T5">
-        <v>0.109788894007462</v>
+        <v>0.1001836439646843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.310314</v>
       </c>
       <c r="I6">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J6">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.369632</v>
       </c>
       <c r="O6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q6">
         <v>27.86184066493866</v>
@@ -818,10 +818,10 @@
         <v>250.7565659844479</v>
       </c>
       <c r="S6">
-        <v>0.1111260476515504</v>
+        <v>0.1127905183401349</v>
       </c>
       <c r="T6">
-        <v>0.1111260476515503</v>
+        <v>0.1127905183401349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.310314</v>
       </c>
       <c r="I7">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J7">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N7">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q7">
-        <v>7.799143354380667</v>
+        <v>15.22684623662666</v>
       </c>
       <c r="R7">
-        <v>70.192290189426</v>
+        <v>137.04161612964</v>
       </c>
       <c r="S7">
-        <v>0.03110663026405209</v>
+        <v>0.06164143641363528</v>
       </c>
       <c r="T7">
-        <v>0.03110663026405208</v>
+        <v>0.06164143641363525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H8">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I8">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J8">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N8">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O8">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P8">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q8">
-        <v>12.52106603686734</v>
+        <v>12.04728492138134</v>
       </c>
       <c r="R8">
-        <v>112.689594331806</v>
+        <v>108.425564292432</v>
       </c>
       <c r="S8">
-        <v>0.04993986570356375</v>
+        <v>0.04876991176623269</v>
       </c>
       <c r="T8">
-        <v>0.04993986570356373</v>
+        <v>0.04876991176623268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H9">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I9">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J9">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>20.369632</v>
       </c>
       <c r="O9">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P9">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q9">
-        <v>12.67356405800533</v>
+        <v>13.56328695084089</v>
       </c>
       <c r="R9">
-        <v>114.062076522048</v>
+        <v>122.069582557568</v>
       </c>
       <c r="S9">
-        <v>0.05054809911382346</v>
+        <v>0.05490700287818548</v>
       </c>
       <c r="T9">
-        <v>0.05054809911382345</v>
+        <v>0.05490700287818545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H10">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I10">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J10">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N10">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O10">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P10">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q10">
-        <v>3.547609940347334</v>
+        <v>7.412506852915555</v>
       </c>
       <c r="R10">
-        <v>31.928489463126</v>
+        <v>66.71256167623999</v>
       </c>
       <c r="S10">
-        <v>0.01414952716229739</v>
+        <v>0.03000736743112046</v>
       </c>
       <c r="T10">
-        <v>0.01414952716229738</v>
+        <v>0.03000736743112044</v>
       </c>
     </row>
   </sheetData>
